--- a/实验内容/实验四/测试检查单/数据库增加部分测试.xlsx
+++ b/实验内容/实验四/测试检查单/数据库增加部分测试.xlsx
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否通过测试(P/S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未通过可能原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,6 +274,10 @@
   </si>
   <si>
     <t>对于1,3而言成功在数据库中插入一条数据，对于2而言由于插入对象为空，所以插入失败。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过测试(P/F)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -820,7 +820,7 @@
         <v>5</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
@@ -832,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -840,10 +840,10 @@
       <c r="F3" s="11"/>
       <c r="G3" s="12"/>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -866,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
@@ -887,7 +887,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -902,16 +902,16 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="409.5">
@@ -919,40 +919,40 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="L6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="409.5">
@@ -960,40 +960,40 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="4" t="s">
+      <c r="L7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="M7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="71.25">
@@ -1001,40 +1001,40 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="K8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="M8" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:13">
